--- a/Labs cortos mpi/Pruebas de tiempo.xlsx
+++ b/Labs cortos mpi/Pruebas de tiempo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
   <si>
     <t>PROGRAMA PARALELO PARA APROXIMAR PI</t>
   </si>
@@ -119,6 +119,90 @@
   </si>
   <si>
     <t>PROGRAMA PARALELO PARA CREAR UN HISTOGRAMA</t>
+  </si>
+  <si>
+    <t>0.000169277 segundos</t>
+  </si>
+  <si>
+    <t>0.00139189 segundos</t>
+  </si>
+  <si>
+    <t>0.0131679 segundos</t>
+  </si>
+  <si>
+    <t>0.000196695 segundos</t>
+  </si>
+  <si>
+    <t>0.000790119 segundos</t>
+  </si>
+  <si>
+    <t>0.00835681 segundos</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.000185966 segundos</t>
+  </si>
+  <si>
+    <t>0.000715017 segundos</t>
+  </si>
+  <si>
+    <t>0.00599504 segundos</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>2.20</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.000489473 segundos</t>
+  </si>
+  <si>
+    <t>0.000869751 segundos</t>
+  </si>
+  <si>
+    <t>0.00561142 segundos</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.29</t>
   </si>
   <si>
     <t>PROGRAMA PARALELO PARA LA CONJETURA DE GOLDBACH</t>
@@ -134,9 +218,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -195,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -218,16 +299,19 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -381,8 +465,8 @@
       <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8">
-        <v>43345.0</v>
+      <c r="E5" s="6">
+        <v>2.09</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>22</v>
@@ -393,8 +477,8 @@
       <c r="H5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="9">
-        <v>43191.0</v>
+      <c r="I5" s="7">
+        <v>1.04</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>25</v>
@@ -422,10 +506,10 @@
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="8" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -473,61 +557,133 @@
       <c r="A10" s="1">
         <v>1.0</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>2.0</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>4.0</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>8.0</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -566,61 +722,73 @@
       <c r="A17" s="1">
         <v>1.0</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>2.0</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>4.0</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>8.0</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
@@ -659,61 +827,61 @@
       <c r="A24" s="1">
         <v>1.0</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>2.0</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>4.0</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>8.0</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -752,57 +920,57 @@
       <c r="A31" s="1">
         <v>1.0</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>2.0</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>4.0</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>8.0</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Labs cortos mpi/Pruebas de tiempo.xlsx
+++ b/Labs cortos mpi/Pruebas de tiempo.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
+  <si>
+    <t>PROGRAMA PARALELO PARA CALCULAR PI</t>
+  </si>
   <si>
     <t>p</t>
   </si>
@@ -211,7 +214,7 @@
     <t>2.64432 segundos</t>
   </si>
   <si>
-    <t>336.79 segundos</t>
+    <t>26.46 segundos</t>
   </si>
   <si>
     <t>0.0114727 segundos</t>
@@ -220,7 +223,7 @@
     <t>1.33169 segundos</t>
   </si>
   <si>
-    <t>167.679 segundos</t>
+    <t>12.36 segundos</t>
   </si>
   <si>
     <t>2.0</t>
@@ -238,7 +241,7 @@
     <t>0.842067 segundos</t>
   </si>
   <si>
-    <t>100.819 segundos</t>
+    <t>6.66 segundos</t>
   </si>
   <si>
     <t>2.99</t>
@@ -265,7 +268,7 @@
     <t>0.500268 segundos</t>
   </si>
   <si>
-    <t>57.7013 segundos</t>
+    <t>3.18 segundos</t>
   </si>
   <si>
     <t>4.44</t>
@@ -286,7 +289,169 @@
     <t>PROGRAMA PARALELO PARA MERGE</t>
   </si>
   <si>
-    <t>PROGRAMA PARALELO PARA DIJKSTRA</t>
+    <t>V1 ci = 1000</t>
+  </si>
+  <si>
+    <t>V2 ci = 1000</t>
+  </si>
+  <si>
+    <t>V1 ci = 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2 ci = 10000 </t>
+  </si>
+  <si>
+    <t>V1 ci = 100000</t>
+  </si>
+  <si>
+    <t>V2 ci = 100000</t>
+  </si>
+  <si>
+    <t>V1 ci= 1000</t>
+  </si>
+  <si>
+    <t>0.000123456 segundos</t>
+  </si>
+  <si>
+    <t>0.000116456 segundos</t>
+  </si>
+  <si>
+    <t>0.0895461 segundos</t>
+  </si>
+  <si>
+    <t>0.0913125 segundos</t>
+  </si>
+  <si>
+    <t>0.1117 segundos</t>
+  </si>
+  <si>
+    <t>0.899 segundos</t>
+  </si>
+  <si>
+    <t>0.000195342 segundos</t>
+  </si>
+  <si>
+    <t>0.001525456 segundos</t>
+  </si>
+  <si>
+    <t>0.0657134 segundos</t>
+  </si>
+  <si>
+    <t>0.0621922 segundos</t>
+  </si>
+  <si>
+    <t>0.0666 segundos</t>
+  </si>
+  <si>
+    <t>0.7111 segundos</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>1.26</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.000266551 segundos</t>
+  </si>
+  <si>
+    <t>0.00353460 segundos</t>
+  </si>
+  <si>
+    <t>0.0534366 segundos</t>
+  </si>
+  <si>
+    <t>0.0337601 segundos</t>
+  </si>
+  <si>
+    <t>0.0582 segundos</t>
+  </si>
+  <si>
+    <t>0.362 segundos</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.000478892 segundos</t>
+  </si>
+  <si>
+    <t>0.00365122 segundos</t>
+  </si>
+  <si>
+    <t>0.0362136 segundos</t>
+  </si>
+  <si>
+    <t>0.0298321 segundos</t>
+  </si>
+  <si>
+    <t>0.0545 segundos</t>
+  </si>
+  <si>
+    <t>0.262 segundos</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>0.37</t>
   </si>
 </sst>
 </file>
@@ -355,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -389,12 +554,21 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -418,188 +592,224 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="24.0"/>
-    <col customWidth="1" min="3" max="3" width="21.43"/>
-    <col customWidth="1" min="4" max="4" width="21.0"/>
+    <col customWidth="1" min="2" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="5" width="21.43"/>
+    <col customWidth="1" min="6" max="7" width="21.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="T2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="9">
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="9">
         <v>2.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="9">
         <v>4.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6">
         <v>2.09</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
         <v>1.04</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="9">
         <v>8.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="10"/>
@@ -613,10 +823,19 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -628,171 +847,205 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="9">
         <v>1.0</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="T10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="9">
         <v>2.0</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="T11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="9">
         <v>4.0</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="R12" s="13"/>
+      <c r="T12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="9">
         <v>8.0</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="T13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="10"/>
@@ -806,10 +1059,19 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -821,171 +1083,205 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="T16" s="8"/>
     </row>
     <row r="17">
       <c r="A17" s="9">
         <v>1.0</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18">
       <c r="A18" s="9">
         <v>2.0</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>43132.0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="13">
+        <v>73</v>
+      </c>
+      <c r="J18" s="14">
         <v>43191.0</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="N18" s="15"/>
+      <c r="P18" s="1"/>
+      <c r="R18" s="15"/>
+      <c r="T18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="9">
         <v>4.0</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="T19" s="8"/>
     </row>
     <row r="20">
       <c r="A20" s="9">
         <v>8.0</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="10"/>
@@ -999,10 +1295,19 @@
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1014,99 +1319,315 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="O23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="S23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="8"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24">
       <c r="A24" s="9">
         <v>1.0</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="8"/>
+      <c r="B24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="9">
         <v>2.0</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="T25" s="8"/>
     </row>
     <row r="26">
       <c r="A26" s="9">
         <v>4.0</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.009</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="9">
         <v>8.0</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="8"/>
+      <c r="B27" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="17">
+        <v>43254.0</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0.003</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="10"/>
@@ -1120,11 +1641,18 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>91</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1135,99 +1663,125 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
       <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
@@ -1241,19 +1795,37 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
